--- a/ONCHO/Entomological survey Survey/Nigeria/2024/oncho_4_black_flies_lab.xlsx
+++ b/ONCHO/Entomological survey Survey/Nigeria/2024/oncho_4_black_flies_lab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\Dimagi\ESPEN Collect forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C38788F-E81B-4CC2-80AE-02486EAADB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86185A66-DA6F-4BE4-B39B-B8B21AF0ED32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="141">
   <si>
     <t>type</t>
   </si>
@@ -349,9 +349,6 @@
     <t>Size</t>
   </si>
   <si>
-    <t>Test type</t>
-  </si>
-  <si>
     <t>${pools_positive} &gt; 0</t>
   </si>
   <si>
@@ -391,9 +388,6 @@
     <t>"Positive"</t>
   </si>
   <si>
-    <t>"PCR"</t>
-  </si>
-  <si>
     <t>"Negative"</t>
   </si>
   <si>
@@ -401,12 +395,6 @@
   </si>
   <si>
     <t>"How many pools of 100 flies tested negative by PCR</t>
-  </si>
-  <si>
-    <t>oncho_4_black_flies_lab_v4</t>
-  </si>
-  <si>
-    <t>4. Blackfly Lab App V4</t>
   </si>
   <si>
     <t>pools_positive_details_v4</t>
@@ -445,6 +433,33 @@
     <t>Months of Fly Collection: **${select_pool_months}**
 Total Number of Positive Pools: **${positive_count}**
 Total Number of Negative Pools: **${negative_count}**</t>
+  </si>
+  <si>
+    <t>oncho_4_black_flies_lab</t>
+  </si>
+  <si>
+    <t>4. Blackfly Lab App</t>
+  </si>
+  <si>
+    <t>qPCR</t>
+  </si>
+  <si>
+    <t>type_test</t>
+  </si>
+  <si>
+    <t>select_one type_test</t>
+  </si>
+  <si>
+    <t>pools_less_100_test_type</t>
+  </si>
+  <si>
+    <t>Test type for pool **${pools_positive_name}**</t>
+  </si>
+  <si>
+    <t>Test type for pool **${pools_negative_name}**</t>
+  </si>
+  <si>
+    <t>Test type for pool **${pools_less_100_name}**</t>
   </si>
 </sst>
 </file>
@@ -986,13 +1001,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C37" sqref="C37"/>
+      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1212,7 +1227,7 @@
     </row>
     <row r="9" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>33</v>
@@ -1240,7 +1255,7 @@
         <v>34</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="7"/>
@@ -1259,7 +1274,7 @@
         <v>79</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>99</v>
@@ -1269,7 +1284,7 @@
       <c r="F11" s="18"/>
       <c r="G11" s="20"/>
       <c r="H11" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
@@ -1280,9 +1295,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>82</v>
@@ -1296,7 +1311,7 @@
       <c r="G12" s="9"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -1304,7 +1319,7 @@
     </row>
     <row r="13" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>83</v>
@@ -1318,7 +1333,7 @@
       <c r="G13" s="9"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7" t="s">
@@ -1328,7 +1343,7 @@
     </row>
     <row r="14" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>84</v>
@@ -1352,26 +1367,24 @@
     </row>
     <row r="15" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>85</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="9"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7" t="s">
-        <v>86</v>
-      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="7"/>
       <c r="M15" s="7"/>
     </row>
     <row r="16" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -1400,7 +1413,7 @@
         <v>35</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="7"/>
@@ -1419,7 +1432,7 @@
         <v>79</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>100</v>
@@ -1429,7 +1442,7 @@
       <c r="F18" s="18"/>
       <c r="G18" s="20"/>
       <c r="H18" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
@@ -1440,9 +1453,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>88</v>
@@ -1456,7 +1469,7 @@
       <c r="G19" s="9"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
@@ -1464,7 +1477,7 @@
     </row>
     <row r="20" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>89</v>
@@ -1478,7 +1491,7 @@
       <c r="G20" s="9"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7" t="s">
@@ -1488,7 +1501,7 @@
     </row>
     <row r="21" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>90</v>
@@ -1512,26 +1525,24 @@
     </row>
     <row r="22" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>91</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="9"/>
       <c r="H22" s="7"/>
-      <c r="I22" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7" t="s">
-        <v>86</v>
-      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="7"/>
       <c r="M22" s="7"/>
     </row>
     <row r="23" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -1579,17 +1590,17 @@
         <v>79</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="20"/>
       <c r="H25" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
@@ -1597,15 +1608,15 @@
       <c r="L25" s="21"/>
       <c r="M25" s="18"/>
       <c r="N25" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>101</v>
@@ -1616,7 +1627,7 @@
       <c r="G26" s="9"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
@@ -1624,13 +1635,13 @@
     </row>
     <row r="27" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="7"/>
@@ -1646,13 +1657,13 @@
     </row>
     <row r="28" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="7"/>
@@ -1668,30 +1679,32 @@
     </row>
     <row r="29" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C29" s="9"/>
+        <v>38</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="D29" s="9"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="9"/>
       <c r="H29" s="7"/>
-      <c r="I29" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="J29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="K29" s="7"/>
       <c r="M29" s="7"/>
     </row>
     <row r="30" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -1700,56 +1713,56 @@
       <c r="G30" s="9"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="M30" s="7"/>
     </row>
     <row r="31" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="M31" s="7"/>
+    </row>
+    <row r="32" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="21"/>
-    </row>
-    <row r="32" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="M32" s="7"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="21"/>
     </row>
     <row r="33" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -1758,31 +1771,29 @@
       <c r="G33" s="9"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="M33" s="7"/>
     </row>
-    <row r="34" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>53</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="9"/>
       <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="I34" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="M34" s="7"/>
     </row>
@@ -1791,10 +1802,10 @@
         <v>58</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="7"/>
@@ -1808,15 +1819,15 @@
       <c r="K35" s="7"/>
       <c r="M35" s="7"/>
     </row>
-    <row r="36" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="7"/>
@@ -1825,84 +1836,87 @@
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="K36" s="7"/>
       <c r="M36" s="7"/>
     </row>
-    <row r="37" spans="1:14" s="10" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
+    <row r="37" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K37" s="7"/>
+      <c r="M37" s="7"/>
+    </row>
+    <row r="38" spans="1:14" s="10" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B38" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="21"/>
-    </row>
-    <row r="38" spans="1:14" s="10" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="C38" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" s="20"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="21"/>
+    </row>
+    <row r="39" spans="1:14" s="10" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B39" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C39" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7" t="s">
+      <c r="D39" s="9"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G38" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7" t="s">
+      <c r="G39" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K38" s="7"/>
-      <c r="M38" s="7"/>
-    </row>
-    <row r="39" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
+      <c r="K39" s="7"/>
+      <c r="M39" s="7"/>
     </row>
     <row r="40" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
@@ -1916,6 +1930,25 @@
       <c r="L40" s="12"/>
       <c r="M40" s="12"/>
     </row>
+    <row r="41" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1924,11 +1957,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2145,6 +2178,28 @@
       </c>
       <c r="C21" s="16" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2182,10 +2237,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>

--- a/ONCHO/Entomological survey Survey/Nigeria/2024/oncho_4_black_flies_lab.xlsx
+++ b/ONCHO/Entomological survey Survey/Nigeria/2024/oncho_4_black_flies_lab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86185A66-DA6F-4BE4-B39B-B8B21AF0ED32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED1D85C-99E1-48BC-851F-5EB40C67CA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="286">
   <si>
     <t>type</t>
   </si>
@@ -395,15 +395,6 @@
   </si>
   <si>
     <t>"How many pools of 100 flies tested negative by PCR</t>
-  </si>
-  <si>
-    <t>pools_positive_details_v4</t>
-  </si>
-  <si>
-    <t>pools_negative_details_v4</t>
-  </si>
-  <si>
-    <t>pools_less_100_details_v4</t>
   </si>
   <si>
     <t>pool_result_negative</t>
@@ -435,12 +426,6 @@
 Total Number of Negative Pools: **${negative_count}**</t>
   </si>
   <si>
-    <t>oncho_4_black_flies_lab</t>
-  </si>
-  <si>
-    <t>4. Blackfly Lab App</t>
-  </si>
-  <si>
     <t>qPCR</t>
   </si>
   <si>
@@ -460,6 +445,456 @@
   </si>
   <si>
     <t>Test type for pool **${pools_less_100_name}**</t>
+  </si>
+  <si>
+    <t>oncho_4_black_flies_lab_v2</t>
+  </si>
+  <si>
+    <t>4. Blackfly Lab App V2</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>ADAMAWA</t>
+  </si>
+  <si>
+    <t>BAUCHI</t>
+  </si>
+  <si>
+    <t>TARABA</t>
+  </si>
+  <si>
+    <t>lga</t>
+  </si>
+  <si>
+    <t>DEMSA</t>
+  </si>
+  <si>
+    <t>FUFORE</t>
+  </si>
+  <si>
+    <t>GIRIE</t>
+  </si>
+  <si>
+    <t>GUYUK</t>
+  </si>
+  <si>
+    <t>HONG</t>
+  </si>
+  <si>
+    <t>JADA</t>
+  </si>
+  <si>
+    <t>LAMURDE</t>
+  </si>
+  <si>
+    <t>MADAGALI</t>
+  </si>
+  <si>
+    <t>MUBI NORTH</t>
+  </si>
+  <si>
+    <t>SONG</t>
+  </si>
+  <si>
+    <t>TEUNGO</t>
+  </si>
+  <si>
+    <t>ALKALERI</t>
+  </si>
+  <si>
+    <t>BOGORO</t>
+  </si>
+  <si>
+    <t>DARAZO</t>
+  </si>
+  <si>
+    <t>DASS</t>
+  </si>
+  <si>
+    <t>GAMAWA</t>
+  </si>
+  <si>
+    <t>GANJUWA</t>
+  </si>
+  <si>
+    <t>GIADE</t>
+  </si>
+  <si>
+    <t>KIRFI</t>
+  </si>
+  <si>
+    <t>MISAU</t>
+  </si>
+  <si>
+    <t>NINGI</t>
+  </si>
+  <si>
+    <t>SHIRA</t>
+  </si>
+  <si>
+    <t>TAFAWA-BALEWA</t>
+  </si>
+  <si>
+    <t>TORO</t>
+  </si>
+  <si>
+    <t>WARJI</t>
+  </si>
+  <si>
+    <t>ZAKI</t>
+  </si>
+  <si>
+    <t>ARDOKOLA</t>
+  </si>
+  <si>
+    <t>BALI</t>
+  </si>
+  <si>
+    <t>DONGA</t>
+  </si>
+  <si>
+    <t>GASHAKA</t>
+  </si>
+  <si>
+    <t>GASSOL</t>
+  </si>
+  <si>
+    <t>IBI</t>
+  </si>
+  <si>
+    <t>JALINGO/K/LAMIDO</t>
+  </si>
+  <si>
+    <t>KARIM LAMIDO</t>
+  </si>
+  <si>
+    <t>KURMI</t>
+  </si>
+  <si>
+    <t>LAU</t>
+  </si>
+  <si>
+    <t>SARDAUNA</t>
+  </si>
+  <si>
+    <t>SARDUANA</t>
+  </si>
+  <si>
+    <t>TAKUM</t>
+  </si>
+  <si>
+    <t>WUKARI</t>
+  </si>
+  <si>
+    <t>YORRO</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>BAKUREJI</t>
+  </si>
+  <si>
+    <t>DAGARAU</t>
+  </si>
+  <si>
+    <t>KWALA</t>
+  </si>
+  <si>
+    <t>YELWAN GALAMBI</t>
+  </si>
+  <si>
+    <t>NAMNAI</t>
+  </si>
+  <si>
+    <t>SIBRE</t>
+  </si>
+  <si>
+    <t>DAKKA</t>
+  </si>
+  <si>
+    <t>GAZABU</t>
+  </si>
+  <si>
+    <t>MAYO KAM</t>
+  </si>
+  <si>
+    <t>PAMANGA</t>
+  </si>
+  <si>
+    <t>BIRIM</t>
+  </si>
+  <si>
+    <t>MIRI</t>
+  </si>
+  <si>
+    <t>DOGON KANIA</t>
+  </si>
+  <si>
+    <t>SABON GARI</t>
+  </si>
+  <si>
+    <t>DARRARI</t>
+  </si>
+  <si>
+    <t>DELHI</t>
+  </si>
+  <si>
+    <t>BIBINU</t>
+  </si>
+  <si>
+    <t>SANSO</t>
+  </si>
+  <si>
+    <t>SUNTAI DONGA</t>
+  </si>
+  <si>
+    <t>TISA</t>
+  </si>
+  <si>
+    <t>FALAHI</t>
+  </si>
+  <si>
+    <t>KOCCIEL</t>
+  </si>
+  <si>
+    <t>LIRINI</t>
+  </si>
+  <si>
+    <t>DADINGA</t>
+  </si>
+  <si>
+    <t>MIYA B</t>
+  </si>
+  <si>
+    <t>NASARAWA</t>
+  </si>
+  <si>
+    <t>FILINGA</t>
+  </si>
+  <si>
+    <t>JAURO JALLO</t>
+  </si>
+  <si>
+    <t>MAI IDANU</t>
+  </si>
+  <si>
+    <t>NYABAR</t>
+  </si>
+  <si>
+    <t>SERTI</t>
+  </si>
+  <si>
+    <t>GARIN KUKA</t>
+  </si>
+  <si>
+    <t>GARIN YUSUF</t>
+  </si>
+  <si>
+    <t>CHINKANI</t>
+  </si>
+  <si>
+    <t>JAMTARI</t>
+  </si>
+  <si>
+    <t>DABEWA</t>
+  </si>
+  <si>
+    <t>HEATIYI</t>
+  </si>
+  <si>
+    <t>PUBA</t>
+  </si>
+  <si>
+    <t>DAMPAR</t>
+  </si>
+  <si>
+    <t>K/WANZA</t>
+  </si>
+  <si>
+    <t>KURMA</t>
+  </si>
+  <si>
+    <t>MALA</t>
+  </si>
+  <si>
+    <t>TAPGAR</t>
+  </si>
+  <si>
+    <t>DESEL</t>
+  </si>
+  <si>
+    <t>KODEI</t>
+  </si>
+  <si>
+    <t>WANZAMIN GOMU</t>
+  </si>
+  <si>
+    <t>G/DUTSE</t>
+  </si>
+  <si>
+    <t>GOMU</t>
+  </si>
+  <si>
+    <t>WONG</t>
+  </si>
+  <si>
+    <t>BARA</t>
+  </si>
+  <si>
+    <t>BUNDURU</t>
+  </si>
+  <si>
+    <t>FAFAN FULANI</t>
+  </si>
+  <si>
+    <t>SHUWAKA</t>
+  </si>
+  <si>
+    <t>BOLLERE</t>
+  </si>
+  <si>
+    <t>JAKAN</t>
+  </si>
+  <si>
+    <t>KATIBU</t>
+  </si>
+  <si>
+    <t>KWATAMA DAFFA</t>
+  </si>
+  <si>
+    <t>ZINDI/MISAU</t>
+  </si>
+  <si>
+    <t>MUCHALLA</t>
+  </si>
+  <si>
+    <t>KAFIN LEMO</t>
+  </si>
+  <si>
+    <t>KAFIN ZAKI</t>
+  </si>
+  <si>
+    <t>RAFIN CHIAWO</t>
+  </si>
+  <si>
+    <t>SAMA</t>
+  </si>
+  <si>
+    <t>UNGUWAR MADAIKI</t>
+  </si>
+  <si>
+    <t>GONTA</t>
+  </si>
+  <si>
+    <t>ANTERE</t>
+  </si>
+  <si>
+    <t>MBASO</t>
+  </si>
+  <si>
+    <t>NDUMYAJI</t>
+  </si>
+  <si>
+    <t>BANGIRE</t>
+  </si>
+  <si>
+    <t>DINDIBUS</t>
+  </si>
+  <si>
+    <t>DISINA B</t>
+  </si>
+  <si>
+    <t>ZIGAU</t>
+  </si>
+  <si>
+    <t>BARWO</t>
+  </si>
+  <si>
+    <t>BOLANGA</t>
+  </si>
+  <si>
+    <t>KARDAM B</t>
+  </si>
+  <si>
+    <t>CHENCHENJI</t>
+  </si>
+  <si>
+    <t>FIKYU</t>
+  </si>
+  <si>
+    <t>GALUMJE</t>
+  </si>
+  <si>
+    <t>LUMBU</t>
+  </si>
+  <si>
+    <t>BIRIJI</t>
+  </si>
+  <si>
+    <t>KOMBOR</t>
+  </si>
+  <si>
+    <t>TUNGO</t>
+  </si>
+  <si>
+    <t>WURO JATAU</t>
+  </si>
+  <si>
+    <t>GUMAU</t>
+  </si>
+  <si>
+    <t>LAME</t>
+  </si>
+  <si>
+    <t>RISHI</t>
+  </si>
+  <si>
+    <t>RUHU</t>
+  </si>
+  <si>
+    <t>GABANGA A</t>
+  </si>
+  <si>
+    <t>FIYAYI</t>
+  </si>
+  <si>
+    <t>RITI</t>
+  </si>
+  <si>
+    <t>DANDIKULU</t>
+  </si>
+  <si>
+    <t>SANDIGALOU</t>
+  </si>
+  <si>
+    <t>TIKIRZE</t>
+  </si>
+  <si>
+    <t>select_one state</t>
+  </si>
+  <si>
+    <t>select_one lga</t>
+  </si>
+  <si>
+    <t>select_one community</t>
+  </si>
+  <si>
+    <t>state = ${lbl_state}</t>
+  </si>
+  <si>
+    <t>lga = ${lbl_lga}</t>
+  </si>
+  <si>
+    <t>pools_positive_details_v42</t>
+  </si>
+  <si>
+    <t>pools_negative_details_v42</t>
+  </si>
+  <si>
+    <t>pools_less_100_details_v42</t>
   </si>
 </sst>
 </file>
@@ -598,7 +1033,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -656,6 +1091,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1003,11 +1441,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1022,8 +1460,8 @@
     <col min="8" max="8" width="29.75" style="3" customWidth="1"/>
     <col min="9" max="9" width="30" style="3" customWidth="1"/>
     <col min="10" max="10" width="9.75" style="3" customWidth="1"/>
-    <col min="11" max="11" width="20.25" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.875" style="3" customWidth="1"/>
     <col min="13" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
@@ -1073,7 +1511,7 @@
     </row>
     <row r="2" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>58</v>
+        <v>278</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>28</v>
@@ -1095,7 +1533,7 @@
     </row>
     <row r="3" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>58</v>
+        <v>279</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>29</v>
@@ -1113,11 +1551,14 @@
         <v>9</v>
       </c>
       <c r="K3" s="7"/>
+      <c r="L3" s="7" t="s">
+        <v>281</v>
+      </c>
       <c r="M3" s="7"/>
     </row>
     <row r="4" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>58</v>
+        <v>280</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>30</v>
@@ -1135,6 +1576,9 @@
         <v>9</v>
       </c>
       <c r="K4" s="7"/>
+      <c r="L4" s="7" t="s">
+        <v>282</v>
+      </c>
       <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -1274,7 +1718,7 @@
         <v>79</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>120</v>
+        <v>283</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>99</v>
@@ -1367,13 +1811,13 @@
     </row>
     <row r="15" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>85</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="7"/>
@@ -1432,7 +1876,7 @@
         <v>79</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>121</v>
+        <v>284</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>100</v>
@@ -1525,13 +1969,13 @@
     </row>
     <row r="22" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>91</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="7"/>
@@ -1590,7 +2034,7 @@
         <v>79</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>122</v>
+        <v>285</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>107</v>
@@ -1635,13 +2079,13 @@
     </row>
     <row r="27" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="7"/>
@@ -1704,7 +2148,7 @@
         <v>110</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -1713,7 +2157,7 @@
       <c r="G30" s="9"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
@@ -1724,7 +2168,7 @@
         <v>110</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -1733,7 +2177,7 @@
       <c r="G31" s="9"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
@@ -1762,7 +2206,7 @@
         <v>110</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -1771,7 +2215,7 @@
       <c r="G33" s="9"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
@@ -1782,7 +2226,7 @@
         <v>110</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -1791,7 +2235,7 @@
       <c r="G34" s="9"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
@@ -1871,7 +2315,7 @@
         <v>42</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D38" s="20"/>
       <c r="E38" s="18"/>
@@ -1957,11 +2401,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:E168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1971,7 +2415,7 @@
     <col min="3" max="3" width="21.625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>13</v>
       </c>
@@ -1981,8 +2425,14 @@
       <c r="C1" s="15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1993,7 +2443,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -2004,7 +2454,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -2015,7 +2465,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>71</v>
       </c>
@@ -2026,7 +2476,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -2037,7 +2487,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -2048,7 +2498,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -2059,7 +2509,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -2070,7 +2520,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -2081,7 +2531,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -2092,7 +2542,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -2103,7 +2553,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -2114,7 +2564,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -2125,7 +2575,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -2136,7 +2586,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -2147,7 +2597,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -2158,7 +2608,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -2169,7 +2619,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>75</v>
       </c>
@@ -2180,9 +2630,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>86</v>
@@ -2191,15 +2641,1988 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>134</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D40" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="D41" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="D44" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D46" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D47" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D48" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D49" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D51" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="D52" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="D53" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="D54" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D55" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="D56" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="D57" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="D58" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="D59" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="D60" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="D61" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="D62" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D63" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="D64" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="D65" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="D66" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="D67" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="D68" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="D69" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B70" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="D70" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="D71" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>184</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="E73" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>184</v>
+      </c>
+      <c r="B74" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="E74" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>184</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E75" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>184</v>
+      </c>
+      <c r="B76" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C76" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="E76" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>184</v>
+      </c>
+      <c r="B77" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C77" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="E77" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>184</v>
+      </c>
+      <c r="B78" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="E78" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>184</v>
+      </c>
+      <c r="B79" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="E79" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>184</v>
+      </c>
+      <c r="B80" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C80" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="E80" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>184</v>
+      </c>
+      <c r="B81" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="C81" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="E81" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>184</v>
+      </c>
+      <c r="B82" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C82" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="E82" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>184</v>
+      </c>
+      <c r="B83" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="C83" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="E83" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>184</v>
+      </c>
+      <c r="B84" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="C84" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="E84" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>184</v>
+      </c>
+      <c r="B85" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="C85" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="E85" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>184</v>
+      </c>
+      <c r="B86" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="C86" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="E86" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>184</v>
+      </c>
+      <c r="B87" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="C87" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="E87" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>184</v>
+      </c>
+      <c r="B88" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="C88" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E88" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>184</v>
+      </c>
+      <c r="B89" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C89" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E89" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>184</v>
+      </c>
+      <c r="B90" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="C90" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="E90" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>184</v>
+      </c>
+      <c r="B91" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C91" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="E91" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>184</v>
+      </c>
+      <c r="B92" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="C92" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="E92" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="C93" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="E93" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>184</v>
+      </c>
+      <c r="B94" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="C94" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="E94" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>184</v>
+      </c>
+      <c r="B95" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="C95" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="E95" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>184</v>
+      </c>
+      <c r="B96" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C96" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="E96" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>184</v>
+      </c>
+      <c r="B97" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C97" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="E97" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>184</v>
+      </c>
+      <c r="B98" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="C98" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="E98" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>184</v>
+      </c>
+      <c r="B99" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="C99" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="E99" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>184</v>
+      </c>
+      <c r="B100" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="C100" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="E100" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>184</v>
+      </c>
+      <c r="B101" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="C101" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="E101" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>184</v>
+      </c>
+      <c r="B102" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="C102" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="E102" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>184</v>
+      </c>
+      <c r="B103" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="C103" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="E103" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>184</v>
+      </c>
+      <c r="B104" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="C104" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="E104" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>184</v>
+      </c>
+      <c r="B105" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="C105" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="E105" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>184</v>
+      </c>
+      <c r="B106" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="C106" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="E106" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>184</v>
+      </c>
+      <c r="B107" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="C107" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="E107" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>184</v>
+      </c>
+      <c r="B108" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="C108" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="E108" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>184</v>
+      </c>
+      <c r="B109" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="C109" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="E109" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>184</v>
+      </c>
+      <c r="B110" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="C110" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="E110" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>184</v>
+      </c>
+      <c r="B111" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="C111" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="E111" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>184</v>
+      </c>
+      <c r="B112" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="C112" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="E112" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>184</v>
+      </c>
+      <c r="B113" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="C113" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="E113" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>184</v>
+      </c>
+      <c r="B114" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="C114" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="E114" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>184</v>
+      </c>
+      <c r="B115" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="C115" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="E115" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>184</v>
+      </c>
+      <c r="B116" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="C116" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="E116" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>184</v>
+      </c>
+      <c r="B117" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="C117" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="E117" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>184</v>
+      </c>
+      <c r="B118" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="C118" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="E118" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>184</v>
+      </c>
+      <c r="B119" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="C119" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="E119" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>184</v>
+      </c>
+      <c r="B120" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="C120" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="E120" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>184</v>
+      </c>
+      <c r="B121" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="C121" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="E121" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>184</v>
+      </c>
+      <c r="B122" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="C122" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="E122" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>184</v>
+      </c>
+      <c r="B123" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="C123" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="E123" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>184</v>
+      </c>
+      <c r="B124" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="C124" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="E124" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>184</v>
+      </c>
+      <c r="B125" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="C125" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="E125" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>184</v>
+      </c>
+      <c r="B126" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="C126" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="E126" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>184</v>
+      </c>
+      <c r="B127" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="C127" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="E127" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>184</v>
+      </c>
+      <c r="B128" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="C128" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="E128" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>184</v>
+      </c>
+      <c r="B129" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="C129" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="E129" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>184</v>
+      </c>
+      <c r="B130" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="C130" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="E130" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>184</v>
+      </c>
+      <c r="B131" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="C131" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="E131" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>184</v>
+      </c>
+      <c r="B132" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="C132" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="E132" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>184</v>
+      </c>
+      <c r="B133" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="C133" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="E133" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>184</v>
+      </c>
+      <c r="B134" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="C134" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="E134" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>184</v>
+      </c>
+      <c r="B135" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="C135" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="E135" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>184</v>
+      </c>
+      <c r="B136" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="C136" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="E136" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>184</v>
+      </c>
+      <c r="B137" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="C137" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="E137" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>184</v>
+      </c>
+      <c r="B138" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="C138" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="E138" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>184</v>
+      </c>
+      <c r="B139" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="C139" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="E139" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>184</v>
+      </c>
+      <c r="B140" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="C140" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="E140" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>184</v>
+      </c>
+      <c r="B141" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="C141" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="E141" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>184</v>
+      </c>
+      <c r="B142" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="C142" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E142" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>184</v>
+      </c>
+      <c r="B143" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="C143" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="E143" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>184</v>
+      </c>
+      <c r="B144" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C144" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="E144" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>184</v>
+      </c>
+      <c r="B145" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C145" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="E145" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>184</v>
+      </c>
+      <c r="B146" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C146" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="E146" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>184</v>
+      </c>
+      <c r="B147" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="C147" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="E147" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>184</v>
+      </c>
+      <c r="B148" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="C148" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="E148" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>184</v>
+      </c>
+      <c r="B149" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="C149" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="E149" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>184</v>
+      </c>
+      <c r="B150" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="C150" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="E150" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>184</v>
+      </c>
+      <c r="B151" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="C151" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="E151" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>184</v>
+      </c>
+      <c r="B152" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="C152" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="E152" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>184</v>
+      </c>
+      <c r="B153" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="C153" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="E153" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>184</v>
+      </c>
+      <c r="B154" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="C154" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="E154" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>184</v>
+      </c>
+      <c r="B155" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="C155" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="E155" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>184</v>
+      </c>
+      <c r="B156" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="C156" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="E156" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>184</v>
+      </c>
+      <c r="B157" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="C157" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="E157" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>184</v>
+      </c>
+      <c r="B158" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C158" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="E158" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>184</v>
+      </c>
+      <c r="B159" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="C159" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="E159" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>184</v>
+      </c>
+      <c r="B160" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="C160" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="E160" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>184</v>
+      </c>
+      <c r="B161" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="C161" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="E161" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>184</v>
+      </c>
+      <c r="B162" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="C162" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="E162" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>184</v>
+      </c>
+      <c r="B163" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="C163" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="E163" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>184</v>
+      </c>
+      <c r="B164" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="C164" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="E164" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>184</v>
+      </c>
+      <c r="B165" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="C165" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E165" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>184</v>
+      </c>
+      <c r="B166" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="C166" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="E166" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>184</v>
+      </c>
+      <c r="B167" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="C167" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="E167" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>184</v>
+      </c>
+      <c r="B168" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="C168" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="E168" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2213,7 +4636,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2237,10 +4660,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
